--- a/user-data/largest-intl-flow/largest-intl-flow.xlsx
+++ b/user-data/largest-intl-flow/largest-intl-flow.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>id</t>
   </si>
@@ -1091,9 +1091,6 @@
     <t>Source: NA</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1495,12 +1492,12 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
@@ -1509,21 +1506,21 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>359</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16">
@@ -1533,52 +1530,42 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/largest-intl-flow/largest-intl-flow.xlsx
+++ b/user-data/largest-intl-flow/largest-intl-flow.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
     <sheet name="largest-intl-flow" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
@@ -1100,7 +1100,7 @@
     <t>This indicator is calculated by identifying the largest international resource flow to each country in each year, based on available data on official development assistance, other official flows, foreign direct investment, remittances, long- and short- term debt disbursements and portfolio equity. Observations without data on at least two of three key resources (ODA, FDI and remittances) are excluded.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following tabs have been included for reference purposes:</t>

--- a/user-data/largest-intl-flow/largest-intl-flow.xlsx
+++ b/user-data/largest-intl-flow/largest-intl-flow.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>id</t>
   </si>
@@ -1112,7 +1112,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1568,6 +1571,11 @@
         <v>367</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/largest-intl-flow/largest-intl-flow.xlsx
+++ b/user-data/largest-intl-flow/largest-intl-flow.xlsx
@@ -62,7 +62,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -134,7 +134,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -710,7 +710,7 @@
     <t>SH</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+    <t>Saint Helena, Ascension &amp; Tristan da Cunha</t>
   </si>
   <si>
     <t>KN</t>
@@ -728,7 +728,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -740,7 +740,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -878,7 +878,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -902,7 +902,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -956,7 +956,7 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Wallis and Futuna</t>
+    <t>Wallis &amp; Futuna</t>
   </si>
   <si>
     <t>YE</t>
@@ -1121,7 +1121,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -5909,7 +5909,7 @@
         <v>2001</v>
       </c>
       <c r="D311" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="312">
@@ -5951,7 +5951,7 @@
         <v>2004</v>
       </c>
       <c r="D314" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="315">
@@ -5965,7 +5965,7 @@
         <v>2005</v>
       </c>
       <c r="D315" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="316">
@@ -5979,7 +5979,7 @@
         <v>2006</v>
       </c>
       <c r="D316" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="317">
@@ -6007,7 +6007,7 @@
         <v>2008</v>
       </c>
       <c r="D318" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="319">
@@ -6035,7 +6035,7 @@
         <v>2010</v>
       </c>
       <c r="D320" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="321">
@@ -6063,7 +6063,7 @@
         <v>2012</v>
       </c>
       <c r="D322" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="323">
@@ -6077,7 +6077,7 @@
         <v>2013</v>
       </c>
       <c r="D323" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="324">
@@ -6189,7 +6189,7 @@
         <v>2007</v>
       </c>
       <c r="D331" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="332">
@@ -6203,7 +6203,7 @@
         <v>2008</v>
       </c>
       <c r="D332" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="333">
@@ -6231,7 +6231,7 @@
         <v>2010</v>
       </c>
       <c r="D334" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="335">
@@ -6259,7 +6259,7 @@
         <v>2012</v>
       </c>
       <c r="D336" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="337">
@@ -6273,7 +6273,7 @@
         <v>2013</v>
       </c>
       <c r="D337" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="338">
@@ -6385,7 +6385,7 @@
         <v>2007</v>
       </c>
       <c r="D345" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="346">
@@ -6399,7 +6399,7 @@
         <v>2008</v>
       </c>
       <c r="D346" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="347">
@@ -6581,7 +6581,7 @@
         <v>2007</v>
       </c>
       <c r="D359" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="360">
@@ -6595,7 +6595,7 @@
         <v>2008</v>
       </c>
       <c r="D360" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="361">
@@ -6679,7 +6679,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="367">
@@ -6693,7 +6693,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="368">
@@ -6707,7 +6707,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="369">
@@ -6721,7 +6721,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="370">
@@ -6735,7 +6735,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="371">
@@ -6861,7 +6861,7 @@
         <v>2013</v>
       </c>
       <c r="D379" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="380">
@@ -6945,7 +6945,7 @@
         <v>2005</v>
       </c>
       <c r="D385" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="386">
@@ -6959,7 +6959,7 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="387">
@@ -6973,7 +6973,7 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="388">
@@ -6987,7 +6987,7 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="389">
@@ -7001,7 +7001,7 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="390">
@@ -7015,7 +7015,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="391">
@@ -7029,7 +7029,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="392">
@@ -7043,7 +7043,7 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="393">
@@ -7225,7 +7225,7 @@
         <v>2011</v>
       </c>
       <c r="D405" t="n">
-        <v> 4</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="406">
@@ -7267,7 +7267,7 @@
         <v>2000</v>
       </c>
       <c r="D408" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="409">
@@ -7281,7 +7281,7 @@
         <v>2001</v>
       </c>
       <c r="D409" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="410">
@@ -7295,7 +7295,7 @@
         <v>2002</v>
       </c>
       <c r="D410" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="411">
@@ -7309,7 +7309,7 @@
         <v>2003</v>
       </c>
       <c r="D411" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="412">
@@ -7323,7 +7323,7 @@
         <v>2004</v>
       </c>
       <c r="D412" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="413">
@@ -7351,7 +7351,7 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="415">
@@ -7393,7 +7393,7 @@
         <v>2009</v>
       </c>
       <c r="D417" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="418">
@@ -7407,7 +7407,7 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="419">
@@ -7421,7 +7421,7 @@
         <v>2011</v>
       </c>
       <c r="D419" t="n">
-        <v> 7</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="420">
@@ -7449,7 +7449,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="422">
@@ -7463,7 +7463,7 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="423">
@@ -7477,7 +7477,7 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="424">
@@ -7491,7 +7491,7 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="425">
@@ -7505,7 +7505,7 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="426">
@@ -7519,7 +7519,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="427">
@@ -7533,7 +7533,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="428">
@@ -7547,7 +7547,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="429">
@@ -7561,7 +7561,7 @@
         <v>2007</v>
       </c>
       <c r="D429" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="430">
@@ -7575,7 +7575,7 @@
         <v>2008</v>
       </c>
       <c r="D430" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="431">
@@ -7589,7 +7589,7 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="432">
@@ -7603,7 +7603,7 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="433">
@@ -7617,7 +7617,7 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="434">
@@ -7631,7 +7631,7 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="435">
@@ -7645,7 +7645,7 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="436">
@@ -7659,7 +7659,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="437">
@@ -7673,7 +7673,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="438">
@@ -7687,7 +7687,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
     </row>
     <row r="439">
@@ -7701,7 +7701,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="440">
@@ -7715,7 +7715,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="441">
@@ -7729,7 +7729,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="442">
@@ -7743,7 +7743,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="443">
@@ -7757,7 +7757,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="444">
@@ -7771,7 +7771,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="445">
@@ -7785,7 +7785,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="446">
@@ -7799,7 +7799,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="447">
@@ -7813,7 +7813,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="448">
@@ -7827,7 +7827,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="449">
@@ -7841,7 +7841,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="450">
@@ -7854,9 +7854,7 @@
       <c r="C450" t="n">
         <v>2000</v>
       </c>
-      <c r="D450" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D450"/>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -7868,9 +7866,7 @@
       <c r="C451" t="n">
         <v>2001</v>
       </c>
-      <c r="D451" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D451"/>
     </row>
     <row r="452">
       <c r="A452" t="s">
@@ -7882,9 +7878,7 @@
       <c r="C452" t="n">
         <v>2002</v>
       </c>
-      <c r="D452" t="n">
-        <v> 7</v>
-      </c>
+      <c r="D452"/>
     </row>
     <row r="453">
       <c r="A453" t="s">
@@ -7896,9 +7890,7 @@
       <c r="C453" t="n">
         <v>2003</v>
       </c>
-      <c r="D453" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D453"/>
     </row>
     <row r="454">
       <c r="A454" t="s">
@@ -7910,9 +7902,7 @@
       <c r="C454" t="n">
         <v>2004</v>
       </c>
-      <c r="D454" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D454"/>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -7924,9 +7914,7 @@
       <c r="C455" t="n">
         <v>2005</v>
       </c>
-      <c r="D455" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D455"/>
     </row>
     <row r="456">
       <c r="A456" t="s">
@@ -7938,9 +7926,7 @@
       <c r="C456" t="n">
         <v>2006</v>
       </c>
-      <c r="D456" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D456"/>
     </row>
     <row r="457">
       <c r="A457" t="s">
@@ -7952,9 +7938,7 @@
       <c r="C457" t="n">
         <v>2007</v>
       </c>
-      <c r="D457" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D457"/>
     </row>
     <row r="458">
       <c r="A458" t="s">
@@ -7966,9 +7950,7 @@
       <c r="C458" t="n">
         <v>2008</v>
       </c>
-      <c r="D458" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D458"/>
     </row>
     <row r="459">
       <c r="A459" t="s">
@@ -7980,9 +7962,7 @@
       <c r="C459" t="n">
         <v>2009</v>
       </c>
-      <c r="D459" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D459"/>
     </row>
     <row r="460">
       <c r="A460" t="s">
@@ -7994,9 +7974,7 @@
       <c r="C460" t="n">
         <v>2010</v>
       </c>
-      <c r="D460" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D460"/>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -8008,9 +7986,7 @@
       <c r="C461" t="n">
         <v>2011</v>
       </c>
-      <c r="D461" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D461"/>
     </row>
     <row r="462">
       <c r="A462" t="s">
@@ -8022,9 +7998,7 @@
       <c r="C462" t="n">
         <v>2012</v>
       </c>
-      <c r="D462" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D462"/>
     </row>
     <row r="463">
       <c r="A463" t="s">
@@ -8036,9 +8010,7 @@
       <c r="C463" t="n">
         <v>2013</v>
       </c>
-      <c r="D463" t="n">
-        <v> 4</v>
-      </c>
+      <c r="D463"/>
     </row>
     <row r="464">
       <c r="A464" t="s">
@@ -8050,7 +8022,9 @@
       <c r="C464" t="n">
         <v>2000</v>
       </c>
-      <c r="D464"/>
+      <c r="D464" t="n">
+        <v> 6</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -8062,7 +8036,9 @@
       <c r="C465" t="n">
         <v>2001</v>
       </c>
-      <c r="D465"/>
+      <c r="D465" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
@@ -8074,7 +8050,9 @@
       <c r="C466" t="n">
         <v>2002</v>
       </c>
-      <c r="D466"/>
+      <c r="D466" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
@@ -8086,7 +8064,9 @@
       <c r="C467" t="n">
         <v>2003</v>
       </c>
-      <c r="D467"/>
+      <c r="D467" t="n">
+        <v> 6</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="s">
@@ -8098,7 +8078,9 @@
       <c r="C468" t="n">
         <v>2004</v>
       </c>
-      <c r="D468"/>
+      <c r="D468" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -8110,7 +8092,9 @@
       <c r="C469" t="n">
         <v>2005</v>
       </c>
-      <c r="D469"/>
+      <c r="D469" t="n">
+        <v> 6</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
@@ -8122,7 +8106,9 @@
       <c r="C470" t="n">
         <v>2006</v>
       </c>
-      <c r="D470"/>
+      <c r="D470" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -8134,7 +8120,9 @@
       <c r="C471" t="n">
         <v>2007</v>
       </c>
-      <c r="D471"/>
+      <c r="D471" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
@@ -8146,7 +8134,9 @@
       <c r="C472" t="n">
         <v>2008</v>
       </c>
-      <c r="D472"/>
+      <c r="D472" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -8158,7 +8148,9 @@
       <c r="C473" t="n">
         <v>2009</v>
       </c>
-      <c r="D473"/>
+      <c r="D473" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
@@ -8170,7 +8162,9 @@
       <c r="C474" t="n">
         <v>2010</v>
       </c>
-      <c r="D474"/>
+      <c r="D474" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -8182,7 +8176,9 @@
       <c r="C475" t="n">
         <v>2011</v>
       </c>
-      <c r="D475"/>
+      <c r="D475" t="n">
+        <v> 4</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="s">
@@ -8194,7 +8190,9 @@
       <c r="C476" t="n">
         <v>2012</v>
       </c>
-      <c r="D476"/>
+      <c r="D476" t="n">
+        <v> 6</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -8206,7 +8204,9 @@
       <c r="C477" t="n">
         <v>2013</v>
       </c>
-      <c r="D477"/>
+      <c r="D477" t="n">
+        <v> 6</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
@@ -8219,7 +8219,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="479">
@@ -8247,7 +8247,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="481">
@@ -8261,7 +8261,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="482">
@@ -8289,7 +8289,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v> 6</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="484">
@@ -8331,7 +8331,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="487">
@@ -8345,7 +8345,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="488">
@@ -8359,7 +8359,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="489">
@@ -8373,7 +8373,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="490">
@@ -8387,7 +8387,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="491">
@@ -8401,7 +8401,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="492">
@@ -33397,7 +33397,7 @@
         <v> 1</v>
       </c>
       <c r="D24" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="E24" t="n">
         <v> 1</v>
@@ -33406,34 +33406,34 @@
         <v> 1</v>
       </c>
       <c r="G24" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="H24" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="I24" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="J24" t="n">
         <v> 4</v>
       </c>
       <c r="K24" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="L24" t="n">
         <v> 1</v>
       </c>
       <c r="M24" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="N24" t="n">
         <v> 1</v>
       </c>
       <c r="O24" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="P24" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="25">
@@ -33465,25 +33465,25 @@
         <v> 1</v>
       </c>
       <c r="J25" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="K25" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="L25" t="n">
         <v> 1</v>
       </c>
       <c r="M25" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="N25" t="n">
         <v> 1</v>
       </c>
       <c r="O25" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="P25" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="26">
@@ -33515,10 +33515,10 @@
         <v> 1</v>
       </c>
       <c r="J26" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="K26" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="L26" t="n">
         <v> 1</v>
@@ -33565,10 +33565,10 @@
         <v> 1</v>
       </c>
       <c r="J27" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="K27" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="L27" t="n">
         <v> 1</v>
@@ -33594,19 +33594,19 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="D28" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="E28" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="F28" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="G28" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="H28" t="n">
         <v> 1</v>
@@ -33633,7 +33633,7 @@
         <v> 1</v>
       </c>
       <c r="P28" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="29">
@@ -33659,28 +33659,28 @@
         <v> 4</v>
       </c>
       <c r="H29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="I29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="J29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="K29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="L29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="M29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="N29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="O29" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="P29" t="n">
         <v> 4</v>
@@ -33727,7 +33727,7 @@
         <v> 4</v>
       </c>
       <c r="N30" t="n">
-        <v> 4</v>
+        <v> 7</v>
       </c>
       <c r="O30" t="n">
         <v> 4</v>
@@ -33744,25 +33744,25 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="D31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="E31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="F31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="G31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="H31" t="n">
         <v> 4</v>
       </c>
       <c r="I31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="J31" t="n">
         <v> 4</v>
@@ -33771,19 +33771,19 @@
         <v> 4</v>
       </c>
       <c r="L31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="M31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
       <c r="N31" t="n">
-        <v> 7</v>
+        <v> 6</v>
       </c>
       <c r="O31" t="n">
         <v> 4</v>
       </c>
       <c r="P31" t="n">
-        <v> 4</v>
+        <v> 6</v>
       </c>
     </row>
     <row r="32">
@@ -33794,46 +33794,46 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="D32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="E32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="F32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="G32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="H32" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="I32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="J32" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="K32" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="L32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="M32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="N32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="O32" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="P32" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="33">
@@ -33844,46 +33844,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="D33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="E33" t="n">
-        <v> 1</v>
+        <v> 7</v>
       </c>
       <c r="F33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="G33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="H33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="I33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="J33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="K33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="L33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="M33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="N33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="O33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
       <c r="P33" t="n">
-        <v> 1</v>
+        <v> 4</v>
       </c>
     </row>
     <row r="34">
@@ -33893,48 +33893,20 @@
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="D34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="E34" t="n">
-        <v> 7</v>
-      </c>
-      <c r="F34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="G34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="H34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="I34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="J34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="K34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="L34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="M34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="N34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="O34" t="n">
-        <v> 4</v>
-      </c>
-      <c r="P34" t="n">
-        <v> 4</v>
-      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -33943,20 +33915,48 @@
       <c r="B35" t="s">
         <v>71</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
+      <c r="C35" t="n">
+        <v> 6</v>
+      </c>
+      <c r="D35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="E35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="F35" t="n">
+        <v> 6</v>
+      </c>
+      <c r="G35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="H35" t="n">
+        <v> 6</v>
+      </c>
+      <c r="I35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="J35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="K35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="L35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="M35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="N35" t="n">
+        <v> 4</v>
+      </c>
+      <c r="O35" t="n">
+        <v> 6</v>
+      </c>
+      <c r="P35" t="n">
+        <v> 6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -33966,22 +33966,22 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="D36" t="n">
         <v> 4</v>
       </c>
       <c r="E36" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="F36" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="G36" t="n">
         <v> 4</v>
       </c>
       <c r="H36" t="n">
-        <v> 6</v>
+        <v> 4</v>
       </c>
       <c r="I36" t="n">
         <v> 4</v>
@@ -33990,22 +33990,22 @@
         <v> 4</v>
       </c>
       <c r="K36" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="L36" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="M36" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="N36" t="n">
-        <v> 4</v>
+        <v> 1</v>
       </c>
       <c r="O36" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
       <c r="P36" t="n">
-        <v> 6</v>
+        <v> 1</v>
       </c>
     </row>
     <row r="37">

--- a/user-data/largest-intl-flow/largest-intl-flow.xlsx
+++ b/user-data/largest-intl-flow/largest-intl-flow.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1013,16 +1013,10 @@
     <t xml:space="preserve">Description: The largest international resource flow to each country in each year.</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Units of measure: NA</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on numerous sources (see notes for international resource flows to and from developing countries data).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: NA</t>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -1408,9 +1402,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>333</v>
-      </c>
+      <c r="A5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1418,35 +1410,41 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8"/>
-    </row>
     <row r="9">
-      <c r="A9"/>
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11"/>
-    </row>
-    <row r="12">
-      <c r="A12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15">
@@ -1461,47 +1459,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/largest-intl-flow/largest-intl-flow.xlsx
+++ b/user-data/largest-intl-flow/largest-intl-flow.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1013,10 +1013,16 @@
     <t xml:space="preserve">Description: The largest international resource flow to each country in each year.</t>
   </si>
   <si>
+    <t xml:space="preserve">Description: NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Units of measure: NA</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on numerous sources (see notes for international resource flows to and from developing countries data).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: NA</t>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -1402,7 +1408,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1410,41 +1418,35 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>335</v>
-      </c>
+      <c r="A8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>336</v>
-      </c>
+      <c r="A9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>338</v>
-      </c>
+      <c r="A11"/>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>336</v>
-      </c>
+      <c r="A12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15">
@@ -1459,22 +1461,47 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/largest-intl-flow/largest-intl-flow.xlsx
+++ b/user-data/largest-intl-flow/largest-intl-flow.xlsx
@@ -964,7 +964,7 @@
     <t xml:space="preserve">Units of measure: </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 57</t>
+    <t xml:space="preserve">Source: 56</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
